--- a/biology/Histoire de la zoologie et de la botanique/Henri_Gadeau_de_Kerville/Henri_Gadeau_de_Kerville.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Gadeau_de_Kerville/Henri_Gadeau_de_Kerville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Gadeau de Kerville, né le 17 décembre 1858 à Rouen[1] et mort le 26 juillet 1940 à Bagnères-de-Luchon, est un zoologiste, entomologiste, botaniste, spéléologue et archéologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Gadeau de Kerville, né le 17 décembre 1858 à Rouen et mort le 26 juillet 1940 à Bagnères-de-Luchon, est un zoologiste, entomologiste, botaniste, spéléologue et archéologue français.
 </t>
         </is>
       </c>
@@ -511,19 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Jean Victor Gadeau de Kerville, un fabricant de cardes, issu de la vieille noblesse bretonne, originaire de Paris, avait épousé à Barentin, Eugénie Eglé Lemarié, fille d'un industriel normand. La famille s'installa à Rouen.
-Gadeau de Kerville a beaucoup été influencé par la nature : à l'âge de quinze ans, il découvrit une nouvelle espèce de coléoptères au cours d’expéditions dans les collines et bois des environs de sa ville natale. Cette découverte sera l’occasion de sa première publication scientifique. Il effectue ses études au lycée Corneille et obtient son baccalauréat ès sciences en 1877. Il entre à la Société des amis des sciences naturelles de Rouen à l’âge de vingt ans. Il en sera secrétaire, président et mécène. Il est membre de l'Association française pour l'avancement des sciences[2].
+Gadeau de Kerville a beaucoup été influencé par la nature : à l'âge de quinze ans, il découvrit une nouvelle espèce de coléoptères au cours d’expéditions dans les collines et bois des environs de sa ville natale. Cette découverte sera l’occasion de sa première publication scientifique. Il effectue ses études au lycée Corneille et obtient son baccalauréat ès sciences en 1877. Il entre à la Société des amis des sciences naturelles de Rouen à l’âge de vingt ans. Il en sera secrétaire, président et mécène. Il est membre de l'Association française pour l'avancement des sciences.
 Il sera également un des membres fondateurs et président du Photo-club rouennais en 1891 et en 1892. Sa devise était « Matière et Mouvement, Tout pour l'Humanité ».
 Il voyage en Kroumirie en 1906, en Syrie en 1908 et en Asie mineure en 1912.
-Il crée en 1910 un laboratoire de spéléobiologie expérimentale à Saint-Paër (Seine-Maritime)[3].
-Il est membre de la Société préhistorique française à partir de 1911[4].
+Il crée en 1910 un laboratoire de spéléobiologie expérimentale à Saint-Paër (Seine-Maritime).
+Il est membre de la Société préhistorique française à partir de 1911.
 Il est membre du conseil de la société zoologique de France.
 Pendant la Première Guerre mondiale, il est infirmier bénévole à l'hôpital 103 à Rouen.
-Lors de son jubilé scientifique fêté le 19 décembre 1936, on lui remet un buste en bronze dû à Josette Hébert-Coëffin[5]. Le muséum d'histoire naturelle de Rouen et le musée d'Elbeuf en conservent un exemplaire. Il est élu vice-président de la Société linnéenne de Normandie en 1936.
+Lors de son jubilé scientifique fêté le 19 décembre 1936, on lui remet un buste en bronze dû à Josette Hébert-Coëffin. Le muséum d'histoire naturelle de Rouen et le musée d'Elbeuf en conservent un exemplaire. Il est élu vice-président de la Société linnéenne de Normandie en 1936.
 Des échantillons et des photographies ramenés de ses expéditions sont conservés dans les muséums de Paris, Londres, Elbeuf et Rouen. Les résultats de ses voyages ont fait l’objet de nombreuses publications scientifiques.
-Il est incinéré et ses cendres sont au columbarium du cimetière monumental de Rouen[6].
+Il est incinéré et ses cendres sont au columbarium du cimetière monumental de Rouen.
 </t>
         </is>
       </c>
@@ -552,17 +566,19 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier d'Académie (1887)[7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier d'Académie (1887)
  Chevalier de l'ordre du Mérite agricole (1896)
- Officier de l'Instruction publique (1899)[8]
+ Officier de l'Instruction publique (1899)
  Officier de l'ordre du Mérite agricole (1902)
  Commandeur de l'ordre du Nichan Iftikhar (1909)
- Chevalier de la Légion d'honneur (décret du 2 avril 1912)[9]
+ Chevalier de la Légion d'honneur (décret du 2 avril 1912)
 Grand officier de l'ordre du Nichan Iftikhar (1928)
 Une rue et une place de Rouen portent son nom.
-Gadeau de Kerville crée deux prix qui portent aujourd'hui son nom[10] :
+Gadeau de Kerville crée deux prix qui portent aujourd'hui son nom :
 Le prix Gadeau de Kerville de la Société entomologique de France attribué par la société entomologique de France depuis 1926.
 Le prix Gadeau de Kerville de la Société zoologique de France attribué par société zoologique de France. Il est créé en 1926 et sera décerné la première fois en 1927. Il résulte d'un don de 20 000 francs et est attribué tous les trois ans. Le prix, non partageable, récompense un mémoire, imprimé ou non, sur la biologie d'un groupe animal (à l'exception des arthropodes).
 Plusieurs espèces animales lui sont dédiées. On peut citer, entre autres :
@@ -600,7 +616,9 @@
           <t>Publications partielles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Autour du canton de Bagnères-de-Luchon (France et Espagne), Toulouse, Privat, 1928, 190 p..
 Bagnères-de-Luchon et son canton (Haute-Garonne), Toulouse, Édouard Privat, 1925 ; Lorisse, 2003  (ISBN 978-2-84373-354-3).
@@ -630,7 +648,7 @@
 Pyrenaea, Rouen, impr. Jules Lecerf fils, 1902.
 Recherches sur les faunes marine et maritime de la Normandie : le voyage, région de Granville et îles Chausey, suivies de deux travaux d'Eugène Canu et du Dr E. Trouessart, Paris, Baillière, 1894.
 Résultat des fouilles effectuées dans un abri sous roche, à Bonnières (Seine-et-Oise) et découverte d'une sépulture néolithique dans l'abri de la Roche-Galerne, à Jeufosse (Seine-et-Oise), Louviers, Eug. Izambert, 1911.
-Exploration de deux buttes circulaires jumelles, situées dans un bois à Saint-Pierre-la-Garenne, publié en collaboration avec Alphonse-Georges Poulain, 1919 (bois du Val-Asselin [11])
+Exploration de deux buttes circulaires jumelles, situées dans un bois à Saint-Pierre-la-Garenne, publié en collaboration avec Alphonse-Georges Poulain, 1919 (bois du Val-Asselin )
 Tristitia, 4 textes publiés à compte d'auteur : À la mémoire de mon père et de ma mère ; Simples réflexions sur le Moi et la Vérité ; Pau, Laruns, Les Eaux-Bonnes, Les Eaux-Chaudes et Bagnères-de-Bigorre ; Les Trois îles, Rouen, Imprimerie Jules Lecerf fils, 1904.
 Voyage zoologique d'Henri Gadeau de Kerville en Asie-Mineure (avril-mai 1912), Paris, P. Lechevalier, 1900-1964 (LCCN 38033809)
 Voyage zoologique d'Henri Gadeau de Kerville en Syrie (avril-juin 1908), Paris, J.-B. Baillière et fils, 1921-1926.
